--- a/trials.xlsx
+++ b/trials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan_\repos\CPEN455\CPEN455-Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A225E70-E93B-4859-85D6-4F296BAC78A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE624D51-4184-4789-9411-BBD5BAB0C07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{3E35F17B-49E2-4697-B917-3CC630436791}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Trial 1</t>
   </si>
@@ -143,6 +143,18 @@
     <t>Trial 22</t>
   </si>
   <si>
+    <t>Trial 23</t>
+  </si>
+  <si>
+    <t>Trial 24</t>
+  </si>
+  <si>
+    <t>Trial 25</t>
+  </si>
+  <si>
+    <t>Trial 26</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Baseline trials are </t>
     </r>
@@ -163,7 +175,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">highlighted. Incrementing trials for nr_resnets in </t>
+      <t xml:space="preserve">highlighted. Incrementing trials that change only one hyper-parameter are highlighted as follows: nr_resnets in </t>
     </r>
     <r>
       <rPr>
@@ -256,10 +268,19 @@
     </r>
   </si>
   <si>
-    <t>Trial 23</t>
+    <t>Trial 27</t>
   </si>
   <si>
-    <t>Trial 24</t>
+    <t>Trial 28</t>
+  </si>
+  <si>
+    <t>Trial 29</t>
+  </si>
+  <si>
+    <t>Trial 30</t>
+  </si>
+  <si>
+    <t>Trial 31</t>
   </si>
 </sst>
 </file>
@@ -2281,8 +2302,106 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>batch_size = 4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AC$9:$AC$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.0447741617841899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4153500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6182699999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66473000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4409700000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66281310211945998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-E60B-4D33-BAC8-6C36F502EBF2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>batch_size = 8</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Y$9:$Y$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.5346053443529595</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5572800000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7579700000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71679999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.58087</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.71290944123314004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-E60B-4D33-BAC8-6C36F502EBF2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="2"/>
           <c:tx>
             <c:v>batch_size = 16</c:v>
           </c:tx>
@@ -2356,8 +2475,106 @@
           </c:extLst>
         </c:ser>
         <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>batch_size = 32</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$9:$Z$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.9835786149716501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.88889</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0540500000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64061999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9212600000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.63391136801541403</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-E60B-4D33-BAC8-6C36F502EBF2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>batch_size = 40</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AA$9:$AA$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10.469633012730201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9327899999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.10907</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69582999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9630799999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.69749518304431601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-E60B-4D33-BAC8-6C36F502EBF2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="6"/>
-          <c:order val="1"/>
+          <c:order val="5"/>
           <c:tx>
             <c:v>batch_size = 50</c:v>
           </c:tx>
@@ -6323,10 +6540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C6ACAA2-874D-4AAA-960D-7A4F3E63741F}">
-  <dimension ref="A1:Y16"/>
+  <dimension ref="A1:AF16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X18" sqref="X18"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6334,9 +6551,12 @@
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
     <col min="2" max="23" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="28" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -6405,13 +6625,34 @@
         <v>34</v>
       </c>
       <c r="X1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="AA1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="2" spans="1:25" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -6484,11 +6725,32 @@
       <c r="X2" s="4">
         <v>50</v>
       </c>
-      <c r="Y2" s="4">
+      <c r="Y2" s="5">
         <v>8</v>
       </c>
+      <c r="Z2" s="5">
+        <v>32</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>40</v>
+      </c>
+      <c r="AB2" s="4">
+        <v>8</v>
+      </c>
+      <c r="AC2" s="5">
+        <v>4</v>
+      </c>
+      <c r="AD2" s="4">
+        <v>8</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>8</v>
+      </c>
+      <c r="AF2" s="4">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -6561,11 +6823,32 @@
       <c r="X3" s="4">
         <v>16</v>
       </c>
-      <c r="Y3" s="4">
+      <c r="Y3" s="5">
         <v>16</v>
       </c>
+      <c r="Z3" s="5">
+        <v>16</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>16</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>16</v>
+      </c>
+      <c r="AC3" s="5">
+        <v>16</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>16</v>
+      </c>
+      <c r="AE3" s="4">
+        <v>16</v>
+      </c>
+      <c r="AF3" s="4">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -6638,11 +6921,32 @@
       <c r="X4" s="4">
         <v>1</v>
       </c>
-      <c r="Y4" s="4">
+      <c r="Y4" s="5">
         <v>1</v>
       </c>
+      <c r="Z4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -6715,11 +7019,32 @@
       <c r="X5" s="4">
         <v>40</v>
       </c>
-      <c r="Y5" s="4">
+      <c r="Y5" s="5">
         <v>40</v>
       </c>
+      <c r="Z5" s="5">
+        <v>40</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>40</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>40</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>40</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>40</v>
+      </c>
+      <c r="AE5" s="4">
+        <v>40</v>
+      </c>
+      <c r="AF5" s="4">
+        <v>40</v>
+      </c>
     </row>
-    <row r="6" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -6792,11 +7117,32 @@
       <c r="X6" s="4">
         <v>5</v>
       </c>
-      <c r="Y6" s="4">
+      <c r="Y6" s="5">
         <v>5</v>
       </c>
+      <c r="Z6" s="5">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>5</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>5</v>
+      </c>
+      <c r="AC6" s="5">
+        <v>5</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>5</v>
+      </c>
+      <c r="AF6" s="4">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -6869,11 +7215,32 @@
       <c r="X7" s="4">
         <v>0.99999499999999997</v>
       </c>
-      <c r="Y7" s="4">
+      <c r="Y7" s="5">
         <v>0.99999499999999997</v>
       </c>
+      <c r="Z7" s="5">
+        <v>0.99999499999999997</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>0.99999499999999997</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>0.99999499999999997</v>
+      </c>
+      <c r="AC7" s="5">
+        <v>0.99999499999999997</v>
+      </c>
+      <c r="AD7" s="4">
+        <v>0.99999499999999997</v>
+      </c>
+      <c r="AE7" s="4">
+        <v>0.99999499999999997</v>
+      </c>
+      <c r="AF7" s="4">
+        <v>0.99999499999999997</v>
+      </c>
     </row>
-    <row r="8" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -6946,11 +7313,32 @@
       <c r="X8" s="4">
         <v>100</v>
       </c>
-      <c r="Y8" s="4">
+      <c r="Y8" s="5">
         <v>10</v>
       </c>
+      <c r="Z8" s="5">
+        <v>10</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>10</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>100</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>10</v>
+      </c>
+      <c r="AD8" s="4">
+        <v>500</v>
+      </c>
+      <c r="AE8" s="4">
+        <v>250</v>
+      </c>
+      <c r="AF8" s="4">
+        <v>94</v>
+      </c>
     </row>
-    <row r="9" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
@@ -7023,9 +7411,32 @@
       <c r="X9" s="4">
         <v>12.2031972990005</v>
       </c>
-      <c r="Y9" s="4"/>
+      <c r="Y9" s="5">
+        <v>8.5346053443529595</v>
+      </c>
+      <c r="Z9" s="5">
+        <v>9.9835786149716501</v>
+      </c>
+      <c r="AA9" s="5">
+        <v>10.469633012730201</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>13.2937490232047</v>
+      </c>
+      <c r="AC9" s="5">
+        <v>8.0447741617841899</v>
+      </c>
+      <c r="AD9" s="4">
+        <v>12.026857330559899</v>
+      </c>
+      <c r="AE9" s="4">
+        <v>12.838412283552</v>
+      </c>
+      <c r="AF9" s="4">
+        <v>11.721079967104901</v>
+      </c>
     </row>
-    <row r="10" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -7098,9 +7509,32 @@
       <c r="X10" s="4">
         <v>5.1713300000000002</v>
       </c>
-      <c r="Y10" s="4"/>
+      <c r="Y10" s="5">
+        <v>5.5572800000000004</v>
+      </c>
+      <c r="Z10" s="5">
+        <v>5.88889</v>
+      </c>
+      <c r="AA10" s="5">
+        <v>5.9327899999999998</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>4.7232099999999999</v>
+      </c>
+      <c r="AC10" s="5">
+        <v>5.4153500000000001</v>
+      </c>
+      <c r="AD10" s="4">
+        <v>4.0432899999999998</v>
+      </c>
+      <c r="AE10" s="4">
+        <v>4.3491499999999998</v>
+      </c>
+      <c r="AF10" s="4">
+        <v>4.73062</v>
+      </c>
     </row>
-    <row r="11" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -7173,9 +7607,32 @@
       <c r="X11" s="4">
         <v>5.3250299999999999</v>
       </c>
-      <c r="Y11" s="4"/>
+      <c r="Y11" s="5">
+        <v>5.7579700000000003</v>
+      </c>
+      <c r="Z11" s="5">
+        <v>6.0540500000000002</v>
+      </c>
+      <c r="AA11" s="5">
+        <v>6.10907</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>4.8957899999999999</v>
+      </c>
+      <c r="AC11" s="5">
+        <v>5.6182699999999999</v>
+      </c>
+      <c r="AD11" s="4">
+        <v>4.2167399999999997</v>
+      </c>
+      <c r="AE11" s="4">
+        <v>4.5209700000000002</v>
+      </c>
+      <c r="AF11" s="4">
+        <v>4.9241700000000002</v>
+      </c>
     </row>
-    <row r="12" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -7248,9 +7705,32 @@
       <c r="X12" s="4">
         <v>0.70599999999999996</v>
       </c>
-      <c r="Y12" s="4"/>
+      <c r="Y12" s="5">
+        <v>0.71679999999999999</v>
+      </c>
+      <c r="Z12" s="5">
+        <v>0.64061999999999997</v>
+      </c>
+      <c r="AA12" s="5">
+        <v>0.69582999999999995</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>0.75390999999999997</v>
+      </c>
+      <c r="AC12" s="5">
+        <v>0.66473000000000004</v>
+      </c>
+      <c r="AD12" s="4">
+        <v>0.66601999999999995</v>
+      </c>
+      <c r="AE12" s="4">
+        <v>0.73633000000000004</v>
+      </c>
+      <c r="AF12" s="4">
+        <v>0.69726999999999995</v>
+      </c>
     </row>
-    <row r="13" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -7323,9 +7803,32 @@
       <c r="X13" s="4">
         <v>5.1888800000000002</v>
       </c>
-      <c r="Y13" s="4"/>
+      <c r="Y13" s="5">
+        <v>5.58087</v>
+      </c>
+      <c r="Z13" s="5">
+        <v>5.9212600000000002</v>
+      </c>
+      <c r="AA13" s="5">
+        <v>5.9630799999999997</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>4.7560000000000002</v>
+      </c>
+      <c r="AC13" s="5">
+        <v>5.4409700000000001</v>
+      </c>
+      <c r="AD13" s="4">
+        <v>4.0894700000000004</v>
+      </c>
+      <c r="AE13" s="4">
+        <v>4.3816699999999997</v>
+      </c>
+      <c r="AF13" s="4">
+        <v>4.7708700000000004</v>
+      </c>
     </row>
-    <row r="14" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -7398,11 +7901,34 @@
       <c r="X14" s="4">
         <v>0.70520231213872797</v>
       </c>
-      <c r="Y14" s="4"/>
+      <c r="Y14" s="5">
+        <v>0.71290944123314004</v>
+      </c>
+      <c r="Z14" s="5">
+        <v>0.63391136801541403</v>
+      </c>
+      <c r="AA14" s="5">
+        <v>0.69749518304431601</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>0.75337186897880504</v>
+      </c>
+      <c r="AC14" s="5">
+        <v>0.66281310211945998</v>
+      </c>
+      <c r="AD14" s="4">
+        <v>0.67052023121387205</v>
+      </c>
+      <c r="AE14" s="4">
+        <v>0.73410404624277403</v>
+      </c>
+      <c r="AF14" s="4">
+        <v>0.69749518304431601</v>
+      </c>
     </row>
-    <row r="16" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/trials.xlsx
+++ b/trials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan_\repos\CPEN455\CPEN455-Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE624D51-4184-4789-9411-BBD5BAB0C07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0990BB88-7065-4524-9563-BF273884E73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{3E35F17B-49E2-4697-B917-3CC630436791}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="15345" xr2:uid="{3E35F17B-49E2-4697-B917-3CC630436791}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Trial 1</t>
   </si>
@@ -282,6 +282,12 @@
   <si>
     <t>Trial 31</t>
   </si>
+  <si>
+    <t>Trial 32</t>
+  </si>
+  <si>
+    <t>Trial 33</t>
+  </si>
 </sst>
 </file>
 
@@ -481,7 +487,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1"/>
@@ -495,6 +501,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="20% - Accent1" xfId="4" builtinId="30"/>
@@ -6540,10 +6547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C6ACAA2-874D-4AAA-960D-7A4F3E63741F}">
-  <dimension ref="A1:AF16"/>
+  <dimension ref="A1:AH16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA17" sqref="AA17"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF18" sqref="AF18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6553,10 +6560,10 @@
     <col min="24" max="24" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="25" max="28" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="29" max="31" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="34" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -6651,8 +6658,14 @@
       <c r="AF1" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="AG1" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH1" s="13" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -6749,8 +6762,14 @@
       <c r="AF2" s="4">
         <v>8</v>
       </c>
+      <c r="AG2" s="4">
+        <v>8</v>
+      </c>
+      <c r="AH2" s="4">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -6847,8 +6866,14 @@
       <c r="AF3" s="4">
         <v>16</v>
       </c>
+      <c r="AG3" s="4">
+        <v>16</v>
+      </c>
+      <c r="AH3" s="4">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -6945,8 +6970,14 @@
       <c r="AF4" s="4">
         <v>1</v>
       </c>
+      <c r="AG4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -7043,8 +7074,14 @@
       <c r="AF5" s="4">
         <v>40</v>
       </c>
+      <c r="AG5" s="4">
+        <v>40</v>
+      </c>
+      <c r="AH5" s="4">
+        <v>40</v>
+      </c>
     </row>
-    <row r="6" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -7141,8 +7178,14 @@
       <c r="AF6" s="4">
         <v>5</v>
       </c>
+      <c r="AG6" s="4">
+        <v>5</v>
+      </c>
+      <c r="AH6" s="4">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -7239,8 +7282,14 @@
       <c r="AF7" s="4">
         <v>0.99999499999999997</v>
       </c>
+      <c r="AG7" s="4">
+        <v>0.99999499999999997</v>
+      </c>
+      <c r="AH7" s="4">
+        <v>0.99999499999999997</v>
+      </c>
     </row>
-    <row r="8" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -7337,8 +7386,14 @@
       <c r="AF8" s="4">
         <v>94</v>
       </c>
+      <c r="AG8" s="4">
+        <v>80</v>
+      </c>
+      <c r="AH8" s="4">
+        <v>150</v>
+      </c>
     </row>
-    <row r="9" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
@@ -7435,8 +7490,14 @@
       <c r="AF9" s="4">
         <v>11.721079967104901</v>
       </c>
+      <c r="AG9" s="4">
+        <v>11.981199699999999</v>
+      </c>
+      <c r="AH9" s="4">
+        <v>11.981199699999999</v>
+      </c>
     </row>
-    <row r="10" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -7533,8 +7594,14 @@
       <c r="AF10" s="4">
         <v>4.73062</v>
       </c>
+      <c r="AG10" s="4">
+        <v>4.8080999999999996</v>
+      </c>
+      <c r="AH10" s="4">
+        <v>4.8080999999999996</v>
+      </c>
     </row>
-    <row r="11" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -7631,8 +7698,14 @@
       <c r="AF11" s="4">
         <v>4.9241700000000002</v>
       </c>
+      <c r="AG11" s="4">
+        <v>4.9857199999999997</v>
+      </c>
+      <c r="AH11" s="4">
+        <v>4.9857199999999997</v>
+      </c>
     </row>
-    <row r="12" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -7729,8 +7802,14 @@
       <c r="AF12" s="4">
         <v>0.69726999999999995</v>
       </c>
+      <c r="AG12" s="4">
+        <v>0.70703000000000005</v>
+      </c>
+      <c r="AH12" s="4">
+        <v>0.70703000000000005</v>
+      </c>
     </row>
-    <row r="13" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -7827,8 +7906,14 @@
       <c r="AF13" s="4">
         <v>4.7708700000000004</v>
       </c>
+      <c r="AG13" s="4">
+        <v>4.8443500000000004</v>
+      </c>
+      <c r="AH13" s="4">
+        <v>4.8443500000000004</v>
+      </c>
     </row>
-    <row r="14" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -7925,8 +8010,14 @@
       <c r="AF14" s="4">
         <v>0.69749518304431601</v>
       </c>
+      <c r="AG14" s="4">
+        <v>0.70905587699999995</v>
+      </c>
+      <c r="AH14" s="4">
+        <v>0.70905587699999995</v>
+      </c>
     </row>
-    <row r="16" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
